--- a/tut05/output/0501ME04.xlsx
+++ b/tut05/output/0501ME04.xlsx
@@ -550,22 +550,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>6.795918367346939</v>
+        <v>6.8</v>
       </c>
       <c r="C6" t="n">
-        <v>7.045454545454546</v>
+        <v>7.05</v>
       </c>
       <c r="D6" t="n">
-        <v>7.659574468085107</v>
+        <v>7.66</v>
       </c>
       <c r="E6" t="n">
-        <v>7.938775510204081</v>
+        <v>7.94</v>
       </c>
       <c r="F6" t="n">
-        <v>8.217391304347826</v>
+        <v>8.220000000000001</v>
       </c>
       <c r="G6" t="n">
-        <v>8.086956521739131</v>
+        <v>8.09</v>
       </c>
       <c r="H6" t="n">
         <v>8.699999999999999</v>
@@ -612,28 +612,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6.795918367346939</v>
+        <v>6.8</v>
       </c>
       <c r="C8" t="n">
-        <v>6.913978494623656</v>
+        <v>6.91</v>
       </c>
       <c r="D8" t="n">
-        <v>7.164285714285715</v>
+        <v>7.16</v>
       </c>
       <c r="E8" t="n">
-        <v>7.365079365079365</v>
+        <v>7.37</v>
       </c>
       <c r="F8" t="n">
-        <v>7.531914893617022</v>
+        <v>7.53</v>
       </c>
       <c r="G8" t="n">
-        <v>7.622775800711744</v>
+        <v>7.62</v>
       </c>
       <c r="H8" t="n">
-        <v>7.757009345794392</v>
+        <v>7.76</v>
       </c>
       <c r="I8" t="n">
-        <v>7.905817174515235</v>
+        <v>7.91</v>
       </c>
     </row>
   </sheetData>
